--- a/分组帮代.xlsx
+++ b/分组帮代.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>组长</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>李欣</t>
+  </si>
+  <si>
+    <t>组长职责</t>
+  </si>
+  <si>
+    <t>1,联络感情(问问白天知识掌握程度)主动</t>
+  </si>
+  <si>
+    <t>2,监督(自我监督,监督组员,直接惩罚)</t>
+  </si>
+  <si>
+    <t>组员职责</t>
+  </si>
+  <si>
+    <t>1,组长没有主动找组员联络感情,上报</t>
+  </si>
+  <si>
+    <t>2,主动问组长问题</t>
+  </si>
+  <si>
+    <t>3,努力学习干掉组长</t>
+  </si>
+  <si>
+    <t>v1.0</t>
   </si>
 </sst>
 </file>
@@ -85,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +119,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,9 +147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,10 +162,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,15 +186,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,8 +238,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,75 +257,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,145 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +462,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,39 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -506,197 +562,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,13 +1067,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1124,6 +1147,47 @@
       </c>
       <c r="C7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>42947</v>
       </c>
     </row>
   </sheetData>

--- a/分组帮代.xlsx
+++ b/分组帮代.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>组长</t>
   </si>
@@ -66,6 +66,9 @@
     <t>胡世斌</t>
   </si>
   <si>
+    <t>胡鹏涛</t>
+  </si>
+  <si>
     <t>郑含笑</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>李欣</t>
+  </si>
+  <si>
+    <t>郝润生</t>
   </si>
   <si>
     <t>组长职责</t>
@@ -105,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,28 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,15 +149,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -202,61 +216,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,18 +473,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +506,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,21 +532,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +553,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,16 +588,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,115 +606,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,13 +1073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
   </cols>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1099,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1113,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1127,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1141,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1137,52 +1155,64 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/分组帮代.xlsx
+++ b/分组帮代.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>组长</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>陈时顺</t>
+  </si>
+  <si>
+    <t>王威亮</t>
   </si>
   <si>
     <t>董辉</t>
@@ -110,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,15 +128,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,122 +210,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,31 +280,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,49 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,97 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,20 +476,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,17 +528,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1079,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1099,19 +1102,22 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1119,13 +1125,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1133,13 +1139,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1147,16 +1153,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1164,16 +1170,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1181,38 +1187,38 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
